--- a/SchedulingData/dynamic13/pso/scheduling1_5.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_5.xlsx
@@ -462,178 +462,178 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>73.81999999999999</v>
+        <v>51.66</v>
       </c>
       <c r="E2" t="n">
-        <v>25.788</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>82.98</v>
+        <v>51.3</v>
       </c>
       <c r="E3" t="n">
-        <v>26.832</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.3</v>
+        <v>51.56</v>
       </c>
       <c r="E4" t="n">
-        <v>27.2</v>
+        <v>27.504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>51.56</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>27.504</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>51.66</v>
       </c>
       <c r="D6" t="n">
-        <v>42.2</v>
+        <v>122.82</v>
       </c>
       <c r="E6" t="n">
-        <v>26.48</v>
+        <v>22.488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51.56</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>111.14</v>
+        <v>44.88</v>
       </c>
       <c r="E7" t="n">
-        <v>24.176</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>51.3</v>
       </c>
       <c r="D8" t="n">
-        <v>62.18</v>
+        <v>114.32</v>
       </c>
       <c r="E8" t="n">
-        <v>26.932</v>
+        <v>23.868</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>62.18</v>
+        <v>122.82</v>
       </c>
       <c r="D9" t="n">
-        <v>112.28</v>
+        <v>170.82</v>
       </c>
       <c r="E9" t="n">
-        <v>23.552</v>
+        <v>18.328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>112.28</v>
+        <v>51.56</v>
       </c>
       <c r="D10" t="n">
-        <v>178.58</v>
+        <v>100.66</v>
       </c>
       <c r="E10" t="n">
-        <v>20.512</v>
+        <v>24.704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,108 +641,108 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>178.58</v>
+        <v>100.66</v>
       </c>
       <c r="D11" t="n">
-        <v>238.86</v>
+        <v>160.74</v>
       </c>
       <c r="E11" t="n">
-        <v>17.104</v>
+        <v>21.296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>238.86</v>
+        <v>114.32</v>
       </c>
       <c r="D12" t="n">
-        <v>293.56</v>
+        <v>182.48</v>
       </c>
       <c r="E12" t="n">
-        <v>13.744</v>
+        <v>20.172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>74.3</v>
+        <v>44.88</v>
       </c>
       <c r="D13" t="n">
-        <v>127.56</v>
+        <v>92.8</v>
       </c>
       <c r="E13" t="n">
-        <v>23.504</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>111.14</v>
+        <v>92.8</v>
       </c>
       <c r="D14" t="n">
-        <v>139.54</v>
+        <v>134.4</v>
       </c>
       <c r="E14" t="n">
-        <v>21.976</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>82.98</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>142.68</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>22.992</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>142.68</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>182.24</v>
+        <v>159.8</v>
       </c>
       <c r="E16" t="n">
-        <v>20.176</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="17">
@@ -751,188 +751,188 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>127.56</v>
+        <v>170.82</v>
       </c>
       <c r="D17" t="n">
-        <v>182.66</v>
+        <v>231.46</v>
       </c>
       <c r="E17" t="n">
-        <v>20.624</v>
+        <v>15.364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>182.24</v>
+        <v>182.48</v>
       </c>
       <c r="D18" t="n">
-        <v>237.98</v>
+        <v>243.78</v>
       </c>
       <c r="E18" t="n">
-        <v>17.212</v>
+        <v>17.132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>237.98</v>
+        <v>159.8</v>
       </c>
       <c r="D19" t="n">
-        <v>292.82</v>
+        <v>228.02</v>
       </c>
       <c r="E19" t="n">
-        <v>13.348</v>
+        <v>17.568</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>42.2</v>
+        <v>228.02</v>
       </c>
       <c r="D20" t="n">
-        <v>80.31999999999999</v>
+        <v>292.92</v>
       </c>
       <c r="E20" t="n">
-        <v>23.308</v>
+        <v>14.188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>80.31999999999999</v>
+        <v>134.4</v>
       </c>
       <c r="D21" t="n">
-        <v>129.52</v>
+        <v>211.78</v>
       </c>
       <c r="E21" t="n">
-        <v>19.528</v>
+        <v>17.332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>292.82</v>
+        <v>211.78</v>
       </c>
       <c r="D22" t="n">
-        <v>345.02</v>
+        <v>261.78</v>
       </c>
       <c r="E22" t="n">
-        <v>9.747999999999999</v>
+        <v>14.452</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>129.52</v>
+        <v>160.74</v>
       </c>
       <c r="D23" t="n">
-        <v>225.58</v>
+        <v>220.24</v>
       </c>
       <c r="E23" t="n">
-        <v>15.992</v>
+        <v>17.456</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>182.66</v>
+        <v>220.24</v>
       </c>
       <c r="D24" t="n">
-        <v>247.46</v>
+        <v>267.54</v>
       </c>
       <c r="E24" t="n">
-        <v>15.764</v>
+        <v>13.856</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>247.46</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>309.7</v>
+        <v>134.1</v>
       </c>
       <c r="E25" t="n">
-        <v>12.64</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>73.81999999999999</v>
+        <v>231.46</v>
       </c>
       <c r="D26" t="n">
-        <v>129.78</v>
+        <v>279.72</v>
       </c>
       <c r="E26" t="n">
-        <v>21.812</v>
+        <v>11.668</v>
       </c>
     </row>
     <row r="27">
@@ -941,55 +941,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>225.58</v>
+        <v>134.1</v>
       </c>
       <c r="D27" t="n">
-        <v>297.28</v>
+        <v>199.86</v>
       </c>
       <c r="E27" t="n">
-        <v>11.912</v>
+        <v>18.424</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>129.78</v>
+        <v>243.78</v>
       </c>
       <c r="D28" t="n">
-        <v>212.18</v>
+        <v>308.06</v>
       </c>
       <c r="E28" t="n">
-        <v>17.652</v>
+        <v>13.804</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>293.56</v>
+        <v>308.06</v>
       </c>
       <c r="D29" t="n">
-        <v>344.62</v>
+        <v>355.5</v>
       </c>
       <c r="E29" t="n">
-        <v>10.268</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="30">
@@ -998,55 +998,55 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>297.28</v>
+        <v>199.86</v>
       </c>
       <c r="D30" t="n">
-        <v>341.76</v>
+        <v>288.56</v>
       </c>
       <c r="E30" t="n">
-        <v>9.103999999999999</v>
+        <v>14.644</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>341.76</v>
+        <v>279.72</v>
       </c>
       <c r="D31" t="n">
-        <v>414.22</v>
+        <v>329.66</v>
       </c>
       <c r="E31" t="n">
-        <v>5.968</v>
+        <v>7.804</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>344.62</v>
+        <v>288.56</v>
       </c>
       <c r="D32" t="n">
-        <v>392.88</v>
+        <v>355.12</v>
       </c>
       <c r="E32" t="n">
-        <v>6.572</v>
+        <v>11.108</v>
       </c>
     </row>
     <row r="33">
@@ -1055,74 +1055,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>392.88</v>
+        <v>261.78</v>
       </c>
       <c r="D33" t="n">
-        <v>439.58</v>
+        <v>295.18</v>
       </c>
       <c r="E33" t="n">
-        <v>3.032</v>
+        <v>12.252</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>139.54</v>
+        <v>292.92</v>
       </c>
       <c r="D34" t="n">
-        <v>204.66</v>
+        <v>347.62</v>
       </c>
       <c r="E34" t="n">
-        <v>19.064</v>
+        <v>11.328</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>212.18</v>
+        <v>295.18</v>
       </c>
       <c r="D35" t="n">
-        <v>278.44</v>
+        <v>345.08</v>
       </c>
       <c r="E35" t="n">
-        <v>14.116</v>
+        <v>9.391999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>278.44</v>
+        <v>355.5</v>
       </c>
       <c r="D36" t="n">
-        <v>339.94</v>
+        <v>410.82</v>
       </c>
       <c r="E36" t="n">
-        <v>10.096</v>
+        <v>7.768</v>
       </c>
     </row>
     <row r="37">
@@ -1131,22 +1131,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>339.94</v>
+        <v>347.62</v>
       </c>
       <c r="D37" t="n">
-        <v>414.74</v>
+        <v>394.5</v>
       </c>
       <c r="E37" t="n">
-        <v>7.236</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1154,70 +1154,70 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>345.02</v>
+        <v>329.66</v>
       </c>
       <c r="D38" t="n">
-        <v>404.96</v>
+        <v>389.6</v>
       </c>
       <c r="E38" t="n">
-        <v>5.884</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>309.7</v>
+        <v>267.54</v>
       </c>
       <c r="D39" t="n">
-        <v>359.6</v>
+        <v>324.14</v>
       </c>
       <c r="E39" t="n">
-        <v>9.779999999999999</v>
+        <v>10.316</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>359.6</v>
+        <v>324.14</v>
       </c>
       <c r="D40" t="n">
-        <v>402.92</v>
+        <v>363.6</v>
       </c>
       <c r="E40" t="n">
-        <v>6.088</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>204.66</v>
+        <v>355.12</v>
       </c>
       <c r="D41" t="n">
-        <v>245.46</v>
+        <v>417.58</v>
       </c>
       <c r="E41" t="n">
-        <v>16.624</v>
+        <v>7.972</v>
       </c>
     </row>
   </sheetData>
